--- a/fichier_excel/Classeur1.xlsx
+++ b/fichier_excel/Classeur1.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -519,6 +519,29 @@
         <v/>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>bzrp</v>
+      </c>
+      <c r="B6" t="str">
+        <v>nana</v>
+      </c>
+      <c r="C6" t="str">
+        <v>M</v>
+      </c>
+      <c r="D6" t="str">
+        <v>google</v>
+      </c>
+      <c r="E6" t="str">
+        <v>ale</v>
+      </c>
+      <c r="F6" t="str">
+        <v>00 01 01 01 01</v>
+      </c>
+      <c r="G6" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
@@ -526,116 +549,233 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G6"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Id_entreprise</v>
+        <v>Nom</v>
       </c>
       <c r="B1" t="str">
-        <v>Nom</v>
+        <v>Reseau</v>
       </c>
       <c r="C1" t="str">
-        <v>Réseau</v>
+        <v>Agences</v>
       </c>
       <c r="D1" t="str">
-        <v>Agences</v>
-      </c>
-      <c r="E1" t="str">
         <v>Adresses</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>Entreprise_1</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Reseau_1</v>
+      </c>
+      <c r="C2" t="str">
         <v/>
-      </c>
-      <c r="B2" t="str">
-        <v/>
-      </c>
-      <c r="C2" t="str">
-        <v>M</v>
       </c>
       <c r="D2" t="str">
         <v/>
       </c>
       <c r="E2" t="str">
-        <v/>
+        <v>00 00 00 00 00</v>
       </c>
       <c r="F2" t="str">
-        <v>00 00 00 00 00</v>
-      </c>
-      <c r="G2" t="str">
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>apagnan</v>
+        <v>Entreprise_2</v>
       </c>
       <c r="B3" t="str">
-        <v>apagna</v>
+        <v>Reseau_2</v>
       </c>
       <c r="C3" t="str">
-        <v>M</v>
+        <v>gggg</v>
       </c>
       <c r="D3" t="str">
-        <v>gggg</v>
+        <v>gggggg</v>
       </c>
       <c r="E3" t="str">
-        <v>gggggg</v>
+        <v>00 01 02 03 04</v>
       </c>
       <c r="F3" t="str">
-        <v>00 01 02 03 04</v>
-      </c>
-      <c r="G3" t="str">
         <v>cuacoubaca@caca.com</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Entreprise_3</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Reseau_3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Entreprise_4</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Reseau_4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Entreprise_5</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Reseau_5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Entreprise_6</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Reseau_6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Entreprise_7</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Reseau_1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Entreprise_8</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Reseau_2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Entreprise_9</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Reseau_3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Entreprise_10</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Reseau_4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Entreprise_11</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Reseau_5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Entreprise_12</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Reseau_6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Entreprise_13</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Reseau_1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Entreprise_14</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Reseau_2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Entreprise_15</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Reseau_3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F16"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Id_réseau</v>
+        <v>Nom</v>
       </c>
       <c r="B1" t="str">
-        <v>Reseau</v>
-      </c>
-      <c r="C1" t="str">
         <v>Societe</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Yo</v>
+        <v>Reseau_1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Reseau_2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Reseau_3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Reseau_4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Reseau_5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Reseau_6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/fichier_excel/Classeur1.xlsx
+++ b/fichier_excel/Classeur1.xlsx
@@ -432,7 +432,7 @@
         <v>Bayle</v>
       </c>
       <c r="B2" t="str">
-        <v>Baptiste</v>
+        <v>noe</v>
       </c>
       <c r="C2" t="str">
         <v>M</v>

--- a/fichier_excel/Classeur1.xlsx
+++ b/fichier_excel/Classeur1.xlsx
@@ -438,7 +438,7 @@
         <v>M</v>
       </c>
       <c r="D2" t="str">
-        <v>Entreprise_2</v>
+        <v>Entreprise_0</v>
       </c>
       <c r="E2" t="str">
         <v>Ingénieur</v>
